--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -11,11 +11,11 @@
     <sheet name="objdump" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="radare2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="angr" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="BAP" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Hopper" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="IDAPro" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Ghidra" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Dyninst" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="bap" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="hopper" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="idapro" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="ghidra" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="dyninst" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Statistics" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -482,7 +482,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -512,6 +512,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -587,7 +591,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1943,7 +1947,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BAP!$F$2:$F$52</c:f>
+              <c:f>bap!$F$2:$F$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -2320,7 +2324,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hopper!$F$2:$F$52</c:f>
+              <c:f>hopper!$F$2:$F$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -2697,7 +2701,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>IDAPro!$F$2:$F$52</c:f>
+              <c:f>idapro!$F$2:$F$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -3074,7 +3078,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ghidra!$F$2:$F$52</c:f>
+              <c:f>ghidra!$F$2:$F$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -3451,7 +3455,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dyninst!$F$2:$F$52</c:f>
+              <c:f>dyninst!$F$2:$F$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -3621,11 +3625,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="10860707"/>
-        <c:axId val="69122833"/>
+        <c:axId val="41104986"/>
+        <c:axId val="83761064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="10860707"/>
+        <c:axId val="41104986"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3653,7 +3657,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69122833"/>
+        <c:crossAx val="83761064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3661,7 +3665,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69122833"/>
+        <c:axId val="83761064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3698,7 +3702,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10860707"/>
+        <c:crossAx val="41104986"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3746,7 +3750,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9228,11 +9232,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="46190544"/>
-        <c:axId val="25284796"/>
+        <c:axId val="5684359"/>
+        <c:axId val="57265530"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="46190544"/>
+        <c:axId val="5684359"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9260,7 +9264,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25284796"/>
+        <c:crossAx val="57265530"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9268,7 +9272,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="25284796"/>
+        <c:axId val="57265530"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -9298,7 +9302,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46190544"/>
+        <c:crossAx val="5684359"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9357,9 +9361,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>359640</xdr:colOff>
+      <xdr:colOff>358920</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>101880</xdr:rowOff>
+      <xdr:rowOff>101160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9367,8 +9371,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8008920" y="175320"/>
-        <a:ext cx="10427760" cy="4152960"/>
+        <a:off x="8025840" y="175320"/>
+        <a:ext cx="10451880" cy="4152240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9380,16 +9384,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>585360</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>316800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>200160</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>138960</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9397,8 +9401,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7980480" y="5177160"/>
-        <a:ext cx="9474840" cy="4426560"/>
+        <a:off x="3611160" y="5389560"/>
+        <a:ext cx="9705240" cy="4427640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9422,7 +9426,7 @@
       <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -12022,7 +12026,7 @@
       <selection pane="topLeft" activeCell="I99" activeCellId="0" sqref="I99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -14642,7 +14646,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -17242,7 +17246,7 @@
       <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -20056,7 +20060,7 @@
       <selection pane="topLeft" activeCell="C65" activeCellId="0" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -24893,7 +24897,7 @@
       <selection pane="topLeft" activeCell="I99" activeCellId="0" sqref="I99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="11.54"/>
   </cols>
@@ -27522,7 +27526,7 @@
       <selection pane="topLeft" activeCell="C57" activeCellId="0" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -30320,13 +30324,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I104" activeCellId="0" sqref="I104"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D35" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O62" activeCellId="0" sqref="O62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
@@ -33314,6 +33318,9 @@
       <c r="I103" s="5" t="n">
         <v>0.99044</v>
       </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I104" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="objdump" sheetId="1" state="visible" r:id="rId2"/>
@@ -482,7 +482,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -512,10 +512,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -591,7 +587,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3625,11 +3621,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="41104986"/>
-        <c:axId val="83761064"/>
+        <c:axId val="39061107"/>
+        <c:axId val="53255996"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="41104986"/>
+        <c:axId val="39061107"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3657,7 +3653,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83761064"/>
+        <c:crossAx val="53255996"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3665,7 +3661,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83761064"/>
+        <c:axId val="53255996"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3702,7 +3698,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41104986"/>
+        <c:crossAx val="39061107"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3750,7 +3746,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9232,11 +9228,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="5684359"/>
-        <c:axId val="57265530"/>
+        <c:axId val="6597607"/>
+        <c:axId val="11130096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="5684359"/>
+        <c:axId val="6597607"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9264,7 +9260,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57265530"/>
+        <c:crossAx val="11130096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9272,7 +9268,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57265530"/>
+        <c:axId val="11130096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -9302,7 +9298,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5684359"/>
+        <c:crossAx val="6597607"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9361,9 +9357,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>358920</xdr:colOff>
+      <xdr:colOff>358560</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>101160</xdr:rowOff>
+      <xdr:rowOff>100800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9371,8 +9367,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8025840" y="175320"/>
-        <a:ext cx="10451880" cy="4152240"/>
+        <a:off x="8037360" y="175320"/>
+        <a:ext cx="10468080" cy="4151880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9391,9 +9387,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>138960</xdr:colOff>
+      <xdr:colOff>138600</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>63720</xdr:rowOff>
+      <xdr:rowOff>63360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9401,8 +9397,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3611160" y="5389560"/>
-        <a:ext cx="9705240" cy="4427640"/>
+        <a:off x="3616200" y="5389560"/>
+        <a:ext cx="9720000" cy="4427280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9422,11 +9418,11 @@
   </sheetPr>
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -12026,7 +12022,7 @@
       <selection pane="topLeft" activeCell="I99" activeCellId="0" sqref="I99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -14646,7 +14642,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -17246,7 +17242,7 @@
       <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -20060,7 +20056,7 @@
       <selection pane="topLeft" activeCell="C65" activeCellId="0" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -24897,7 +24893,7 @@
       <selection pane="topLeft" activeCell="I99" activeCellId="0" sqref="I99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="11.54"/>
   </cols>
@@ -27526,7 +27522,7 @@
       <selection pane="topLeft" activeCell="C57" activeCellId="0" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -30324,13 +30320,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D35" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B12" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O62" activeCellId="0" sqref="O62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
@@ -33318,9 +33314,6 @@
       <c r="I103" s="5" t="n">
         <v>0.99044</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I104" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -587,7 +587,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3621,11 +3621,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="39061107"/>
-        <c:axId val="53255996"/>
+        <c:axId val="63455947"/>
+        <c:axId val="66614216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39061107"/>
+        <c:axId val="63455947"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3653,7 +3653,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53255996"/>
+        <c:crossAx val="66614216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3661,7 +3661,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53255996"/>
+        <c:axId val="66614216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3698,7 +3698,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39061107"/>
+        <c:crossAx val="63455947"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3713,5606 +3713,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Statistics!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>objdump</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Statistics!$A$2:$A$103</c:f>
-              <c:strCache>
-                <c:ptCount val="102"/>
-                <c:pt idx="0">
-                  <c:v>[</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>b2sum</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>base32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>base64</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>basename</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>basenc</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>cat</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>chcon</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>chgrp</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>chmod</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>chown</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>chroot</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>cksum</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>comm</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>cp</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>csplit</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>cut</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>date</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>dd</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>df</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>dir</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>dircolors</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>dirname</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>du</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>echo</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>env</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>expand</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>expr</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>factor</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>false</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>fmt</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>fold</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>getlimits</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>ginstall</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>groups</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>head</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>hostid</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>id</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>join</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>kill</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>link</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>ln</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>logname</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>ls</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>make-prime-list</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>md5sum</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>mkdir</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>mkfifo</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>mknod</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>mktemp</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>mv</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>nice</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>nl</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>nohup</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>nproc</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>numfmt</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>od</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>paste</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>pathchk</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>pinky</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>pr</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>printenv</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>printf</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>ptx</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>pwd</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>readlink</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>realpath</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>rm</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>rmdir</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>runcon</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>seq</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>shred</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>shuf</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>sleep</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>split</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>stat</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>stdbuf</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>stty</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>sum</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>sync</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>tac</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>tail</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>tee</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>test</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>timeout</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>touch</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>tr</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>true</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>truncate</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>tsort</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>tty</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>uname</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>unexpand</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>uniq</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>unlink</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>uptime</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>users</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>vdir</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>wc</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>who</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>whoami</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>yes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Statistics!$B$2:$B$103</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Statistics!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>radare2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Statistics!$A$2:$A$103</c:f>
-              <c:strCache>
-                <c:ptCount val="102"/>
-                <c:pt idx="0">
-                  <c:v>[</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>b2sum</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>base32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>base64</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>basename</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>basenc</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>cat</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>chcon</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>chgrp</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>chmod</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>chown</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>chroot</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>cksum</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>comm</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>cp</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>csplit</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>cut</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>date</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>dd</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>df</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>dir</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>dircolors</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>dirname</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>du</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>echo</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>env</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>expand</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>expr</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>factor</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>false</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>fmt</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>fold</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>getlimits</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>ginstall</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>groups</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>head</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>hostid</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>id</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>join</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>kill</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>link</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>ln</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>logname</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>ls</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>make-prime-list</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>md5sum</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>mkdir</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>mkfifo</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>mknod</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>mktemp</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>mv</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>nice</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>nl</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>nohup</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>nproc</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>numfmt</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>od</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>paste</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>pathchk</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>pinky</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>pr</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>printenv</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>printf</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>ptx</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>pwd</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>readlink</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>realpath</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>rm</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>rmdir</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>runcon</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>seq</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>shred</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>shuf</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>sleep</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>split</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>stat</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>stdbuf</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>stty</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>sum</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>sync</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>tac</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>tail</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>tee</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>test</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>timeout</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>touch</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>tr</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>true</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>truncate</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>tsort</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>tty</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>uname</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>unexpand</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>uniq</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>unlink</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>uptime</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>users</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>vdir</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>wc</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>who</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>whoami</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>yes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Statistics!$C$2:$C$103</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Statistics!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>angr</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Statistics!$A$2:$A$103</c:f>
-              <c:strCache>
-                <c:ptCount val="102"/>
-                <c:pt idx="0">
-                  <c:v>[</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>b2sum</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>base32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>base64</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>basename</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>basenc</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>cat</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>chcon</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>chgrp</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>chmod</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>chown</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>chroot</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>cksum</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>comm</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>cp</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>csplit</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>cut</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>date</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>dd</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>df</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>dir</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>dircolors</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>dirname</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>du</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>echo</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>env</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>expand</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>expr</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>factor</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>false</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>fmt</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>fold</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>getlimits</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>ginstall</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>groups</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>head</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>hostid</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>id</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>join</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>kill</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>link</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>ln</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>logname</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>ls</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>make-prime-list</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>md5sum</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>mkdir</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>mkfifo</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>mknod</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>mktemp</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>mv</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>nice</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>nl</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>nohup</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>nproc</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>numfmt</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>od</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>paste</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>pathchk</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>pinky</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>pr</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>printenv</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>printf</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>ptx</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>pwd</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>readlink</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>realpath</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>rm</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>rmdir</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>runcon</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>seq</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>shred</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>shuf</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>sleep</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>split</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>stat</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>stdbuf</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>stty</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>sum</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>sync</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>tac</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>tail</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>tee</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>test</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>timeout</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>touch</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>tr</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>true</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>truncate</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>tsort</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>tty</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>uname</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>unexpand</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>uniq</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>unlink</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>uptime</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>users</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>vdir</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>wc</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>who</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>whoami</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>yes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Statistics!$D$2:$D$103</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Statistics!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BAP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Statistics!$A$2:$A$103</c:f>
-              <c:strCache>
-                <c:ptCount val="102"/>
-                <c:pt idx="0">
-                  <c:v>[</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>b2sum</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>base32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>base64</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>basename</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>basenc</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>cat</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>chcon</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>chgrp</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>chmod</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>chown</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>chroot</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>cksum</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>comm</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>cp</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>csplit</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>cut</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>date</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>dd</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>df</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>dir</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>dircolors</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>dirname</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>du</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>echo</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>env</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>expand</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>expr</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>factor</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>false</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>fmt</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>fold</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>getlimits</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>ginstall</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>groups</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>head</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>hostid</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>id</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>join</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>kill</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>link</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>ln</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>logname</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>ls</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>make-prime-list</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>md5sum</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>mkdir</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>mkfifo</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>mknod</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>mktemp</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>mv</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>nice</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>nl</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>nohup</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>nproc</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>numfmt</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>od</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>paste</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>pathchk</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>pinky</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>pr</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>printenv</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>printf</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>ptx</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>pwd</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>readlink</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>realpath</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>rm</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>rmdir</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>runcon</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>seq</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>shred</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>shuf</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>sleep</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>split</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>stat</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>stdbuf</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>stty</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>sum</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>sync</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>tac</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>tail</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>tee</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>test</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>timeout</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>touch</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>tr</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>true</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>truncate</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>tsort</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>tty</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>uname</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>unexpand</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>uniq</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>unlink</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>uptime</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>users</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>vdir</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>wc</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>who</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>whoami</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>yes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Statistics!$E$2:$E$103</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.99927</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.9993</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.99973</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.9993</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.99592</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.99687</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Statistics!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Hopper</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7e0021"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7e0021"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Statistics!$A$2:$A$103</c:f>
-              <c:strCache>
-                <c:ptCount val="102"/>
-                <c:pt idx="0">
-                  <c:v>[</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>b2sum</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>base32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>base64</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>basename</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>basenc</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>cat</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>chcon</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>chgrp</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>chmod</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>chown</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>chroot</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>cksum</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>comm</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>cp</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>csplit</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>cut</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>date</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>dd</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>df</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>dir</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>dircolors</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>dirname</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>du</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>echo</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>env</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>expand</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>expr</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>factor</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>false</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>fmt</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>fold</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>getlimits</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>ginstall</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>groups</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>head</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>hostid</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>id</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>join</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>kill</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>link</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>ln</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>logname</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>ls</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>make-prime-list</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>md5sum</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>mkdir</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>mkfifo</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>mknod</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>mktemp</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>mv</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>nice</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>nl</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>nohup</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>nproc</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>numfmt</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>od</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>paste</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>pathchk</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>pinky</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>pr</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>printenv</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>printf</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>ptx</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>pwd</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>readlink</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>realpath</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>rm</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>rmdir</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>runcon</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>seq</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>shred</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>shuf</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>sleep</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>split</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>stat</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>stdbuf</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>stty</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>sum</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>sync</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>tac</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>tail</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>tee</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>test</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>timeout</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>touch</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>tr</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>true</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>truncate</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>tsort</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>tty</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>uname</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>unexpand</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>uniq</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>unlink</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>uptime</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>users</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>vdir</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>wc</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>who</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>whoami</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>yes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Statistics!$F$2:$F$103</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Statistics!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>IDA Pro</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="83caff"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="83caff"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Statistics!$A$2:$A$103</c:f>
-              <c:strCache>
-                <c:ptCount val="102"/>
-                <c:pt idx="0">
-                  <c:v>[</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>b2sum</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>base32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>base64</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>basename</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>basenc</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>cat</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>chcon</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>chgrp</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>chmod</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>chown</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>chroot</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>cksum</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>comm</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>cp</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>csplit</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>cut</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>date</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>dd</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>df</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>dir</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>dircolors</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>dirname</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>du</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>echo</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>env</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>expand</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>expr</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>factor</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>false</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>fmt</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>fold</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>getlimits</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>ginstall</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>groups</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>head</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>hostid</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>id</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>join</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>kill</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>link</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>ln</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>logname</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>ls</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>make-prime-list</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>md5sum</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>mkdir</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>mkfifo</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>mknod</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>mktemp</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>mv</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>nice</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>nl</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>nohup</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>nproc</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>numfmt</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>od</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>paste</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>pathchk</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>pinky</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>pr</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>printenv</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>printf</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>ptx</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>pwd</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>readlink</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>realpath</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>rm</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>rmdir</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>runcon</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>seq</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>shred</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>shuf</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>sleep</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>split</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>stat</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>stdbuf</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>stty</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>sum</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>sync</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>tac</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>tail</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>tee</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>test</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>timeout</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>touch</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>tr</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>true</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>truncate</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>tsort</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>tty</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>uname</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>unexpand</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>uniq</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>unlink</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>uptime</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>users</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>vdir</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>wc</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>who</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>whoami</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>yes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Statistics!$G$2:$G$103</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Statistics!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ghidra</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="314004"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="314004"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Statistics!$A$2:$A$103</c:f>
-              <c:strCache>
-                <c:ptCount val="102"/>
-                <c:pt idx="0">
-                  <c:v>[</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>b2sum</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>base32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>base64</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>basename</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>basenc</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>cat</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>chcon</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>chgrp</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>chmod</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>chown</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>chroot</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>cksum</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>comm</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>cp</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>csplit</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>cut</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>date</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>dd</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>df</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>dir</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>dircolors</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>dirname</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>du</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>echo</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>env</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>expand</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>expr</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>factor</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>false</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>fmt</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>fold</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>getlimits</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>ginstall</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>groups</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>head</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>hostid</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>id</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>join</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>kill</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>link</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>ln</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>logname</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>ls</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>make-prime-list</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>md5sum</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>mkdir</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>mkfifo</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>mknod</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>mktemp</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>mv</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>nice</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>nl</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>nohup</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>nproc</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>numfmt</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>od</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>paste</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>pathchk</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>pinky</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>pr</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>printenv</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>printf</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>ptx</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>pwd</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>readlink</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>realpath</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>rm</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>rmdir</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>runcon</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>seq</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>shred</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>shuf</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>sleep</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>split</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>stat</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>stdbuf</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>stty</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>sum</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>sync</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>tac</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>tail</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>tee</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>test</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>timeout</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>touch</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>tr</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>true</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>truncate</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>tsort</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>tty</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>uname</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>unexpand</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>uniq</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>unlink</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>uptime</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>users</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>vdir</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>wc</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>who</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>whoami</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>yes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Statistics!$H$2:$H$103</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.99989</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.99961</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.99974</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.99982</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.99975</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.99963</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.99986</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.99979</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.99981</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.99961</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Statistics!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Dyninst</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="aecf00"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="aecf00"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Statistics!$A$2:$A$103</c:f>
-              <c:strCache>
-                <c:ptCount val="102"/>
-                <c:pt idx="0">
-                  <c:v>[</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>b2sum</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>base32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>base64</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>basename</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>basenc</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>cat</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>chcon</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>chgrp</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>chmod</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>chown</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>chroot</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>cksum</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>comm</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>cp</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>csplit</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>cut</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>date</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>dd</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>df</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>dir</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>dircolors</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>dirname</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>du</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>echo</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>env</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>expand</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>expr</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>factor</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>false</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>fmt</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>fold</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>getlimits</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>ginstall</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>groups</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>head</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>hostid</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>id</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>join</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>kill</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>link</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>ln</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>logname</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>ls</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>make-prime-list</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>md5sum</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>mkdir</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>mkfifo</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>mknod</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>mktemp</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>mv</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>nice</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>nl</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>nohup</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>nproc</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>numfmt</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>od</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>paste</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>pathchk</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>pinky</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>pr</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>printenv</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>printf</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>ptx</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>pwd</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>readlink</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>realpath</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>rm</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>rmdir</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>runcon</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>seq</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>shred</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>shuf</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>sleep</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>split</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>stat</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>stdbuf</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>stty</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>sum</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>sync</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>tac</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>tail</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>tee</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>test</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>timeout</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>touch</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>tr</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>true</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>truncate</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>tsort</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>tty</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>uname</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>unexpand</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>uniq</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>unlink</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>uptime</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>users</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>vdir</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>wc</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>who</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>whoami</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>yes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Statistics!$I$2:$I$103</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
-                <c:pt idx="0">
-                  <c:v>0.98351</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98523</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.98465</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.98433</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.98875</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.98246</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.98614</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.98666</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.98371</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.98572</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.98441</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.98001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.98541</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.98755</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.98412</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.97847</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.98366</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.98072</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.9785</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.97872</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.98225</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.98949</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.99216</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.98341</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.99354</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.98675</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.98818</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.9845</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.98226</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.99344</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.97944</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.98126</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.97683</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.98332</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.98537</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.98101</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.98693</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.98531</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.98393</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.98657</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.98598</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.98587</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.98705</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.98225</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.98522</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.988</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.9841</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.9881</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.9858</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.98677</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.98368</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.97335</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.98248</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.98738</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.98002</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.97839</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.9857</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.98715</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.98482</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.98463</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.97503</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.99304</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.98079</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.98393</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.98704</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.9859</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.98544</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.98672</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.98744</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.99219</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.97816</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.9788</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.98234</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.98281</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.9809</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.98833</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.9789</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.97673</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.98368</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.98681</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.98319</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.9794</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.98479</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.98198</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.98337</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.98113</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.98572</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.99344</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.97194</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.98655</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.98797</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.98664</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.98778</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.98264</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.98579</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.98104</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.98589</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.98225</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.98453</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.97771</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.98663</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.99044</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="6597607"/>
-        <c:axId val="11130096"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="6597607"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="11130096"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="11130096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0.97"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="6597607"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.900875871162178"/>
+          <c:y val="0.160935955179611"/>
+          <c:w val="0.0866453192691656"/>
+          <c:h val="0.448533450510821"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9350,16 +3760,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>613800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>714960</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>358560</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>100800</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>98280</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>26280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9367,42 +3777,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8037360" y="175320"/>
-        <a:ext cx="10468080" cy="4151880"/>
+        <a:off x="1540800" y="650520"/>
+        <a:ext cx="7644960" cy="3277080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>316800</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>138600</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>63360</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="3616200" y="5389560"/>
-        <a:ext cx="9720000" cy="4427280"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9419,10 +3799,10 @@
   <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -12022,7 +6402,7 @@
       <selection pane="topLeft" activeCell="I99" activeCellId="0" sqref="I99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -14642,7 +9022,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -17242,7 +11622,7 @@
       <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -20056,7 +14436,7 @@
       <selection pane="topLeft" activeCell="C65" activeCellId="0" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -24893,7 +19273,7 @@
       <selection pane="topLeft" activeCell="I99" activeCellId="0" sqref="I99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="11.54"/>
   </cols>
@@ -27522,7 +21902,7 @@
       <selection pane="topLeft" activeCell="C57" activeCellId="0" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -30322,11 +24702,11 @@
   </sheetPr>
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B12" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O62" activeCellId="0" sqref="O62"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
